--- a/figures/exploratory/differential_expression/tables/clustered_gsea_pathway_network_interaction_sets.xlsx
+++ b/figures/exploratory/differential_expression/tables/clustered_gsea_pathway_network_interaction_sets.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/9DD5F5EE-9904-4F01-8BFF-1077A8742FAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/37342748-5BEE-47F9-AF29-9B6F0BAA23C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0819EF-CA49-3349-BBE9-4007B4E6440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C921B-6056-2B40-AA49-7DC7850889A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="30360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$128</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1148,9 +1151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1188,9 +1191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,26 +1226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,26 +1261,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1468,10 +1437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E119" sqref="E13:E119"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1726,7 +1696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1773,48 +1743,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1.648922842335137</v>
+        <v>-1.6809317558923149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7">
-        <v>4.292602927548647E-11</v>
+        <v>6.1371363204922394E-9</v>
       </c>
       <c r="I7">
-        <v>4.6958419658732632E-7</v>
+        <v>1.442274754654669E-5</v>
       </c>
       <c r="J7">
-        <v>2.2179793474585311E-5</v>
+        <v>3.1710460625256989E-3</v>
       </c>
       <c r="K7">
-        <v>0.85133905711689895</v>
+        <v>0.76146080144558481</v>
       </c>
       <c r="L7">
-        <v>0.56938366919925354</v>
+        <v>-0.57617148788040373</v>
       </c>
       <c r="M7">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -1825,46 +1795,46 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1.7326965672884089</v>
+        <v>-1.7590198487798141</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>1.479326078431259E-10</v>
+        <v>1.362902956446409E-8</v>
       </c>
       <c r="I8">
-        <v>1.2025210186909359E-6</v>
+        <v>2.9777053529703198E-5</v>
       </c>
       <c r="J8">
-        <v>7.6436482607327458E-5</v>
+        <v>7.0420923178994678E-3</v>
       </c>
       <c r="K8">
-        <v>0.82665730117830205</v>
+        <v>0.74773966314988538</v>
       </c>
       <c r="L8">
-        <v>0.60421745165456997</v>
+        <v>-0.60656480660456114</v>
       </c>
       <c r="M8">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -1872,96 +1842,96 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>1.651753151740043</v>
+        <v>-1.539830742900671</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>1.296528585938835E-9</v>
+        <v>5.6104515978922422E-8</v>
       </c>
       <c r="I9">
-        <v>5.0222767597194268E-6</v>
+        <v>5.674260544807526E-5</v>
       </c>
       <c r="J9">
-        <v>6.6991372729742439E-4</v>
+        <v>2.8989091197277259E-2</v>
       </c>
       <c r="K9">
-        <v>0.78818681080023711</v>
+        <v>0.71951282633891067</v>
       </c>
       <c r="L9">
-        <v>0.57243668872110787</v>
+        <v>-0.52448074977450887</v>
       </c>
       <c r="M9">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1.566411195570347</v>
+        <v>-1.546428667485799</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10">
-        <v>2.190208786267076E-9</v>
+        <v>4.9306278628444999E-8</v>
       </c>
       <c r="I10">
-        <v>5.4965822687169953E-6</v>
+        <v>6.6071357084219369E-5</v>
       </c>
       <c r="J10">
-        <v>1.1316764994466261E-3</v>
+        <v>2.5476455554760271E-2</v>
       </c>
       <c r="K10">
-        <v>0.77493903013643628</v>
+        <v>0.71951282633891067</v>
       </c>
       <c r="L10">
-        <v>0.53715532145440714</v>
+        <v>-0.59287257238878344</v>
       </c>
       <c r="M10">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1972,40 +1942,40 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1.540517774051452</v>
+        <v>1.648922842335137</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>6.5227121469089178E-9</v>
+        <v>4.292602927548647E-11</v>
       </c>
       <c r="I11">
-        <v>1.168403415839172E-5</v>
+        <v>4.6958419658732632E-7</v>
       </c>
       <c r="J11">
-        <v>3.3702723208835438E-3</v>
+        <v>2.2179793474585311E-5</v>
       </c>
       <c r="K11">
-        <v>0.76146080144558481</v>
+        <v>0.85133905711689895</v>
       </c>
       <c r="L11">
-        <v>0.52877003520582999</v>
+        <v>0.56938366919925354</v>
       </c>
       <c r="M11">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2013,49 +1983,49 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>-1.6809317558923149</v>
+        <v>1.7326965672884089</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>6.1371363204922394E-9</v>
+        <v>1.479326078431259E-10</v>
       </c>
       <c r="I12">
-        <v>1.442274754654669E-5</v>
+        <v>1.2025210186909359E-6</v>
       </c>
       <c r="J12">
-        <v>3.1710460625256989E-3</v>
+        <v>7.6436482607327458E-5</v>
       </c>
       <c r="K12">
-        <v>0.76146080144558481</v>
+        <v>0.82665730117830205</v>
       </c>
       <c r="L12">
-        <v>-0.57617148788040373</v>
+        <v>0.60421745165456997</v>
       </c>
       <c r="M12">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2066,40 +2036,40 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1.5247808491442461</v>
+        <v>1.651753151740043</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13">
-        <v>1.310984444463051E-8</v>
+        <v>1.296528585938835E-9</v>
       </c>
       <c r="I13">
-        <v>1.8964172193899029E-5</v>
+        <v>5.0222767597194268E-6</v>
       </c>
       <c r="J13">
-        <v>6.7738304048516962E-3</v>
+        <v>6.6991372729742439E-4</v>
       </c>
       <c r="K13">
-        <v>0.74773966314988538</v>
+        <v>0.78818681080023711</v>
       </c>
       <c r="L13">
-        <v>0.52284294348448124</v>
+        <v>0.57243668872110787</v>
       </c>
       <c r="M13">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2107,43 +2077,43 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>-1.7590198487798141</v>
+        <v>1.566411195570347</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14">
-        <v>1.362902956446409E-8</v>
+        <v>2.190208786267076E-9</v>
       </c>
       <c r="I14">
-        <v>2.9777053529703198E-5</v>
+        <v>5.4965822687169953E-6</v>
       </c>
       <c r="J14">
-        <v>7.0420923178994678E-3</v>
+        <v>1.1316764994466261E-3</v>
       </c>
       <c r="K14">
-        <v>0.74773966314988538</v>
+        <v>0.77493903013643628</v>
       </c>
       <c r="L14">
-        <v>-0.60656480660456114</v>
+        <v>0.53715532145440714</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="N14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
@@ -2160,43 +2130,43 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1.4923986784953089</v>
+        <v>1.540517774051452</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>3.8349444668401022E-8</v>
+        <v>6.5227121469089178E-9</v>
       </c>
       <c r="I15">
-        <v>4.134423597054233E-5</v>
+        <v>1.168403415839172E-5</v>
       </c>
       <c r="J15">
-        <v>1.9815081361273471E-2</v>
+        <v>3.3702723208835438E-3</v>
       </c>
       <c r="K15">
-        <v>0.71951282633891067</v>
+        <v>0.76146080144558481</v>
       </c>
       <c r="L15">
-        <v>0.51054069191822171</v>
+        <v>0.52877003520582999</v>
       </c>
       <c r="M15">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2207,40 +2177,40 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1.6559834043681261</v>
+        <v>1.5247808491442461</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>2.4012806039771601E-8</v>
+        <v>1.310984444463051E-8</v>
       </c>
       <c r="I16">
-        <v>4.444254286552691E-5</v>
+        <v>1.8964172193899029E-5</v>
       </c>
       <c r="J16">
-        <v>1.240736885513791E-2</v>
+        <v>6.7738304048516962E-3</v>
       </c>
       <c r="K16">
-        <v>0.73376198835648032</v>
+        <v>0.74773966314988538</v>
       </c>
       <c r="L16">
-        <v>0.57806375356886086</v>
+        <v>0.52284294348448124</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2248,13 +2218,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>-1.539830742900671</v>
+        <v>1.4923986784953089</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>59</v>
@@ -2266,78 +2236,78 @@
         <v>38</v>
       </c>
       <c r="H17">
-        <v>5.6104515978922422E-8</v>
+        <v>3.8349444668401022E-8</v>
       </c>
       <c r="I17">
-        <v>5.674260544807526E-5</v>
+        <v>4.134423597054233E-5</v>
       </c>
       <c r="J17">
-        <v>2.8989091197277259E-2</v>
+        <v>1.9815081361273471E-2</v>
       </c>
       <c r="K17">
         <v>0.71951282633891067</v>
       </c>
       <c r="L17">
-        <v>-0.52448074977450887</v>
+        <v>0.51054069191822171</v>
       </c>
       <c r="M17">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>-1.546428667485799</v>
+        <v>1.6559834043681261</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>4.9306278628444999E-8</v>
+        <v>2.4012806039771601E-8</v>
       </c>
       <c r="I18">
-        <v>6.6071357084219369E-5</v>
+        <v>4.444254286552691E-5</v>
       </c>
       <c r="J18">
-        <v>2.5476455554760271E-2</v>
+        <v>1.240736885513791E-2</v>
       </c>
       <c r="K18">
-        <v>0.71951282633891067</v>
+        <v>0.73376198835648032</v>
       </c>
       <c r="L18">
-        <v>-0.59287257238878344</v>
+        <v>0.57806375356886086</v>
       </c>
       <c r="M18">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2431,7 +2401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +2448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2619,7 +2589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2760,7 +2730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2807,7 +2777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2854,7 +2824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2948,7 +2918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2995,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3089,7 +3059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3136,7 +3106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3183,7 +3153,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3230,7 +3200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -3277,7 +3247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3371,7 +3341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3415,7 +3385,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3509,7 +3479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3556,7 +3526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3603,7 +3573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3650,7 +3620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3791,7 +3761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3838,7 +3808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -3932,7 +3902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3979,7 +3949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4026,7 +3996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -4073,7 +4043,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4120,7 +4090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4167,7 +4137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -4214,7 +4184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4261,7 +4231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4355,7 +4325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4402,7 +4372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4449,7 +4419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -4496,7 +4466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -4537,7 +4507,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -4581,7 +4551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -4625,7 +4595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -4669,7 +4639,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4713,7 +4683,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -4757,7 +4727,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>186</v>
       </c>
@@ -4801,7 +4771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -4845,7 +4815,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>186</v>
       </c>
@@ -4889,7 +4859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -4933,7 +4903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -4977,7 +4947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5021,7 +4991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5065,7 +5035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -5109,7 +5079,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -5153,7 +5123,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -5197,7 +5167,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -5241,7 +5211,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -5285,7 +5255,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -5329,7 +5299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -5373,7 +5343,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -5417,7 +5387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -5461,7 +5431,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -5505,7 +5475,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -5549,7 +5519,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -5593,7 +5563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -5637,7 +5607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -5681,7 +5651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -5725,7 +5695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -5769,7 +5739,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5783,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -5857,7 +5827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -5901,7 +5871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5945,7 +5915,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -5989,7 +5959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -6033,7 +6003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -6074,7 +6044,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -6118,7 +6088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -6162,7 +6132,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6176,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -6250,7 +6220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -6294,7 +6264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -6338,7 +6308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -6382,7 +6352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>186</v>
       </c>
@@ -6470,7 +6440,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -6514,7 +6484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -6558,7 +6528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -6602,7 +6572,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -6646,7 +6616,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -6690,7 +6660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -6734,7 +6704,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -6778,7 +6748,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -6822,7 +6792,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -6866,7 +6836,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -6910,7 +6880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -6954,7 +6924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -6998,7 +6968,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -7042,7 +7012,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7056,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -7127,7 +7097,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -7171,7 +7141,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -7215,7 +7185,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -7259,7 +7229,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -7304,6 +7274,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O128" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:O18">
+      <sortCondition ref="B1:B128"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>